--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3901.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3901.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.800927449507005</v>
+        <v>1.432888150215149</v>
       </c>
       <c r="B1">
-        <v>2.224797665325762</v>
+        <v>2.59496021270752</v>
       </c>
       <c r="C1">
-        <v>3.110082314901205</v>
+        <v>4.001776218414307</v>
       </c>
       <c r="D1">
-        <v>6.804441515079542</v>
+        <v>4.059993267059326</v>
       </c>
       <c r="E1">
-        <v>0.8039743901359364</v>
+        <v>2.386115550994873</v>
       </c>
     </row>
   </sheetData>
